--- a/Analysis_Results.xlsx
+++ b/Analysis_Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Team Name</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Douglas Walker</t>
+  </si>
+  <si>
+    <t>Averages</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,164 +953,228 @@
         <v>-0.3300000000000001</v>
       </c>
     </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s"/>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>338.02</v>
+      </c>
+      <c r="C13" t="n">
+        <v>112.68</v>
+      </c>
+      <c r="D13" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.207</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01000000000000003</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.001000000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N15">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="percentile" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="percentile" val="100"/>
-        <color rgb="00F8696B"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0063BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O15">
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00F8696B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="0063BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O11">
     <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="percentile" val="0"/>
